--- a/data/output/FV2404_FV2310/UTILMD/55173.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55173.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="322">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="322">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1131,6 +1131,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U154" totalsRowShown="0">
+  <autoFilter ref="A1:U154"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,7 +1450,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8817,5 +8850,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55173.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55173.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4253" uniqueCount="472">
   <si>
     <t>#</t>
   </si>
@@ -7873,9 +7873,7 @@
         <v>206</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="L114" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="L114" s="7"/>
       <c r="M114" s="2" t="s">
         <v>42</v>
       </c>
@@ -7929,9 +7927,7 @@
         <v>206</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="L115" s="7"/>
       <c r="M115" s="2" t="s">
         <v>42</v>
       </c>
@@ -7985,9 +7981,7 @@
         <v>206</v>
       </c>
       <c r="K116" s="2"/>
-      <c r="L116" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="L116" s="7"/>
       <c r="M116" s="2" t="s">
         <v>42</v>
       </c>
@@ -8427,9 +8421,7 @@
         <v>206</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="L124" s="7"/>
       <c r="M124" s="2" t="s">
         <v>44</v>
       </c>
@@ -8680,46 +8672,44 @@
       </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2" t="s">
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L129" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="M129" s="2" t="s">
+      <c r="L129" s="7"/>
+      <c r="M129" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N129" s="2" t="s">
+      <c r="N129" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2" t="s">
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="V129" s="2" t="s">
+      <c r="V129" s="5" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9160,46 +9150,44 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2" t="s">
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="L138" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="M138" s="2" t="s">
+      <c r="L138" s="7"/>
+      <c r="M138" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="N138" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2"/>
-      <c r="T138" s="2"/>
-      <c r="U138" s="2" t="s">
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="V138" s="2" t="s">
+      <c r="V138" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9640,44 +9628,42 @@
       </c>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2" t="s">
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K147" s="2"/>
-      <c r="L147" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="M147" s="2" t="s">
+      <c r="K147" s="5"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="N147" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2" t="s">
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="V147" s="2"/>
+      <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="2" t="s">
@@ -9871,9 +9857,7 @@
       <c r="K151" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L151" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="L151" s="7"/>
       <c r="M151" s="2" t="s">
         <v>52</v>
       </c>
